--- a/adatbazis.xlsx
+++ b/adatbazis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84344997-371D-4648-BAAE-E9BB005063ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B9EC06-0736-4FE5-9FDC-B4EADD938BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Mel Gibson</t>
   </si>
@@ -71,33 +71,6 @@
   </si>
   <si>
     <t>Jack Nicholson</t>
-  </si>
-  <si>
-    <t>Sarah Connor</t>
-  </si>
-  <si>
-    <t>Tom Hanks</t>
-  </si>
-  <si>
-    <t>Brian Griffin</t>
-  </si>
-  <si>
-    <t>Don Corleone</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Emma Watson</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Demjén Rózsi</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
   </si>
 </sst>
 </file>
@@ -437,16 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -635,159 +605,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
